--- a/メモ_緯度経度.xlsx
+++ b/メモ_緯度経度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -172,6 +172,18 @@
       </rPr>
       <t xml:space="preserve">パーク ４</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:G15"/>
+  <dimension ref="A4:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -475,6 +487,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>35.168934</v>
@@ -492,15 +512,36 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B14" s="0" t="n">
         <f aca="false">INTERCEPT(B11:B12,C11:C12)</f>
         <v>22.7721045251213</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B15" s="0" t="n">
         <f aca="false">SLOPE(B11:B12,C11:C12)</f>
         <v>0.0904522612882313</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <f aca="false">B15*C11+B14</f>
+        <v>35.168934</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <f aca="false">B15*C19+B14</f>
+        <v>35.1689216080402</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>137.0537</v>
       </c>
     </row>
   </sheetData>
